--- a/hardware/datasheets/Footprint substitutions for Zigbee Cape from CC1352R1.xlsx
+++ b/hardware/datasheets/Footprint substitutions for Zigbee Cape from CC1352R1.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/033a6759af201263/School/SS 2021/EE 491/Git Repository/sddec21-07/hardware/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{784BAE1B-C8B9-4420-8030-49ADDB34F779}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{784BAE1B-C8B9-4420-8030-49ADDB34F779}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2B043420-5361-4EA3-9DE2-6D3FE2E13F30}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="-21720" windowWidth="37710" windowHeight="21840" xr2:uid="{24BDD74C-FF79-4A84-BE6C-DA71A37886E0}"/>
+    <workbookView xWindow="14145" yWindow="-15135" windowWidth="18735" windowHeight="10515" xr2:uid="{24BDD74C-FF79-4A84-BE6C-DA71A37886E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Original</t>
   </si>
@@ -65,6 +64,42 @@
   </si>
   <si>
     <t>C481</t>
+  </si>
+  <si>
+    <t>C81</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C91</t>
+  </si>
+  <si>
+    <t>C231</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>C111</t>
   </si>
 </sst>
 </file>
@@ -416,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CB7D2F-9C22-4A00-904B-2E5328DFE093}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,6 +515,71 @@
         <v>603</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>402</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>402</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
